--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/99/word_level_predictions_99.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2894,470 +2894,470 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>98FT</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>98FT</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>4</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>4</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>4</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>4</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>4</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>8</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,262 +18130,262 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>30</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Takeoff</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>3</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L341" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
-        <is>
-          <t>Takeoff</t>
-        </is>
-      </c>
-      <c r="D342" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>30</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>4</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>30</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>5</v>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>30</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>6</v>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20961,7 +20961,7 @@
       </c>
       <c r="F395" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G395" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="L395" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" t="n">
         <v>41</v>
       </c>
-      <c r="B447" s="2" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" s="2" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" s="2" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="2" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L447" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" t="n">
         <v>41</v>
       </c>
-      <c r="B448" s="2" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" s="2" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L448" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" t="n">
         <v>41</v>
       </c>
-      <c r="B449" s="2" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" s="2" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" s="2" t="n">
+      <c r="D449" t="n">
         <v>2</v>
       </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L449" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" t="n">
         <v>41</v>
       </c>
-      <c r="B450" s="2" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" s="2" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" s="2" t="n">
+      <c r="D450" t="n">
         <v>3</v>
       </c>
-      <c r="E450" s="2" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/99/word_level_predictions_99.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,470 +2894,470 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>15</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>15</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>15</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>15</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>15</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>15</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18130,262 +18130,262 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
+      <c r="F342" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="F391" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G391" s="2" t="b">
@@ -20765,11 +20765,11 @@
         </is>
       </c>
       <c r="I391" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K391" s="2" t="b">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L391" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="F392" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G392" s="2" t="b">
@@ -20817,11 +20817,11 @@
         </is>
       </c>
       <c r="I392" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K392" s="2" t="b">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="L392" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20869,11 +20869,11 @@
         </is>
       </c>
       <c r="I393" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K393" s="2" t="b">
@@ -20921,11 +20921,11 @@
         </is>
       </c>
       <c r="I394" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K394" s="2" t="b">
@@ -20961,7 +20961,7 @@
       </c>
       <c r="F395" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G395" s="2" t="b">
@@ -20973,11 +20973,11 @@
         </is>
       </c>
       <c r="I395" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K395" s="2" t="b">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="L395" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B447" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G447" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K447" t="b">
-        <v>1</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F447" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B448" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C448" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G448" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B449" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K449" t="b">
-        <v>1</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B450" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G450" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K450" t="b">
-        <v>1</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
